--- a/Pedidos/Pedidos SIGA.xlsx
+++ b/Pedidos/Pedidos SIGA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\Instalaciones_Especiales\Pedidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC15C4D-C211-4CFC-80EF-1BDDFBC55BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E23E42-0F20-4B3F-8B08-03680CBEC67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5292" yWindow="0" windowWidth="12024" windowHeight="12240" xr2:uid="{362CBA71-9978-4D43-9002-AF3C19C7E551}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{362CBA71-9978-4D43-9002-AF3C19C7E551}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,25 +34,358 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ADQUISICIÓN DE CAMARAS INTERIORES PARA EL PROYECTO _x001C_MEJORAMIENTO DEL SERVICIO EDUCATIVO EN LA I.E.P.  N° 54002 SANTA ROSA E I.E.S. SANTA ROSA, DEL DISTRITO DE ABANCAY, PROVINCIA DE ABANCAY, REGIÓN APURÍMAC.</t>
   </si>
   <si>
     <t>ADQUISICIÓN DE CABLEADO PARA BACK BONES Y MONITOR PARA PROYECTO MEJORAMIENTO DEL SERVICIO EDUCATIVO EN LA I.E.P.  N° 54002 SANTA ROSA E I.E.S. SANTA ROSA, DEL DISTRITO DE ABANCAY, PROVINCIA DE ABANCAY, REGIÓN APURÍMAC</t>
+  </si>
+  <si>
+    <t>ADQUISICIÓN DE INSUMOS ELECTRICOS PARA INSTALACIONES ESPECIALES PROYECTO MEJORAMIENTO DEL SERVICIO EDUCATIVO EN LA I.E.P.  N° 54002 SANTA ROSA E I.E.S. SANTA ROSA, DEL DISTRITO DE ABANCAY, PROVINCIA DE ABANCAY, REGIÓN APURÍMAC.</t>
+  </si>
+  <si>
+    <t>ADQUISICIÓN DE TABLEROS DE BÁSQUET. PARA MEJORAMIENTO DEL SERVICIO EDUCATIVO EN LA I.E.P. N° 54002 SANTA ROSA E I.E.S. SANTA ROSA, DEL DISTRITO DE ABANCAY, PROVINCIA DE ABANCAY, REGIÓN APURÍMAC.</t>
+  </si>
+  <si>
+    <t>ADQUISICIÓN DE ESTRUCTURA METALICA PARA ARCOS. PROYECTO MEJORAMIENTO DEL SERVICIO EDUCATIVO EN LA I.E.P. N° 54002 SANTA ROSA E I.E.S. SANTA ROSA, DEL DISTRITO DE ABANCAY, PROVINCIA DE ABANCAY, REGIÓN APURÍMAC</t>
+  </si>
+  <si>
+    <t>ADQUISICIÓN DE SISTEMA DE AUDIO INALÁMBRICO. PARA “MEJORAMIENTO DEL SERVICIO EDUCATIVO EN LA I.E.P. N° 54002 SANTA ROSA E I.E.S. SANTA ROSA, DEL DISTRITO DE ABANCAY, PROVINCIA DE ABANCAY, REGIÓN APURÍMAC.</t>
+  </si>
+  <si>
+    <r>
+      <t>ADQUISICIÓN DE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t>INSTRUMENTOS MUSICALES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PARA EL PROYECTO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t>MEJORAMIENTO DEL SERVICIO EDUCATIVO EN LA I.E.P. N° 54002 SANTA ROSA E I.E.S. SANTA ROSA, DEL DISTRITO DE ABANCAY, PROVINCIA DE ABANCAY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t>, REGIÓN APURÍMAC.”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ADQUISICIÓN DE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SOFTWARE PARA MATERIAL DIDÁCTICO DIGITAL. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">PARA EL PROYECTO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t>MEJORAMIENTO DEL SERVICIO EDUCATIVO EN LA I.E.P. N° 54002 SANTA ROSA E I.E.S. SANTA ROSA, DEL DISTRITO DE ABANCAY, PROVINCIA DE ABANCAY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t>, REGIÓN APURÍMAC.”</t>
+    </r>
+  </si>
+  <si>
+    <t>ADQUISICIÓN DE EQUIPAMIENTO PARA EDUCACION FISICA PARA EL PROYECTO “MEJORAMIENTO DEL SERVICIO EDUCATIVO EN LA I.E.P. N° 54002 SANTA ROSA E I.E.S. SANTA ROSA, DEL DISTRITO DE ABANCAY, PROVINCIA DE ABANCAY, REGIÓN APURÍMAC.”</t>
+  </si>
+  <si>
+    <r>
+      <t>ADQUISICIÓN DE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">EQUIPAMIENTO PARA LABORATORIO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">PARA EL PROYECTO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t>MEJORAMIENTO DEL SERVICIO EDUCATIVO EN LA I.E.P. N° 54002 SANTA ROSA E I.E.S. SANTA ROSA, DEL DISTRITO DE ABANCAY, PROVINCIA DE ABANCAY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t>, REGIÓN APURÍMAC.”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ADQUISICIÓN DE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t>SISTEMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">MINI ARREGLO PARA SUM PRIMARIA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">PARA EL PROYECTO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t>MEJORAMIENTO DEL SERVICIO EDUCATIVO EN LA I.E.P. N° 54002 SANTA ROSA E I.E.S. SANTA ROSA, DEL DISTRITO DE ABANCAY, PROVINCIA DE ABANCAY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Agency FB"/>
+        <family val="2"/>
+      </rPr>
+      <t>, REGIÓN APURÍMAC.”</t>
+    </r>
+  </si>
+  <si>
+    <t>EL PRESENTE PROCESO DE SELECCIÓN BUSCA CONTAR CON MODULO DE CONTROL DMX Y LUCES Y DE ESTA MANERA DOTAR CON EQUIPAMIENTO A LA OBRA: MEJORAMIENTO DEL SERVICIO EDUCATIVO EN LA I.E.P. N° 54002 SANTA ROSA E I.E.S. SANTA ROSA, DISTRITO DE ABANCAY, PROVINCIA DE ABANCAY.</t>
+  </si>
+  <si>
+    <t>ADQUISICIÓN DE MUEBLES DE MELAMINA, PARA EL PROYECTO MEJORAMIENTO DEL SERVICIO EDUCATIVO EN LA I.E.P.  N° 54002 SANTA ROSA E I.E.S. SANTA ROSA, DISTRITO DE ABANCAY, PROVINCIA DE ABANCAY, REGIÓN APURÍMAC</t>
+  </si>
+  <si>
+    <t>SERVICIOS DE ALQUILER DE LOCAL PARA EL TRASLADO TEMPORAL DE LA INSTITUCIÓN EDUCATIVA 54002 SANTA ROSA PARA LA OBRA _x001C_MEJORAMIENTO DEL SERVICIO EDUCATIVO EN LA IEP N° 54002 SANTA ROSA E IES SANTA ROSA DEL DISTRITO DE ABANCAY, PROVINCIA DE ABANCAY _x0013_ REGIÓN APURÍMAC</t>
+  </si>
+  <si>
+    <t>ADQUISICIÓN – PINTURA ESMALTE Y PINTURA DE ALTO TRANSITO, PARA EL PROYECTO “MEJORAMIENTO DEL SERVICIO EDUCATIVO EN LA I.E.P.  N° 54002 SANTA ROSA E I.E.S. SANTA ROSA, DEL DISTRITO DE ABANCAY, PROVINCIA DE ABANCAY, REGIÓN APURÍMAC.”</t>
+  </si>
+  <si>
+    <t>ADQUISICIÓN EQUIPOS PARA EL PROYECTO "MEJORAMIENTO DEL SERVICIO EDUCATIVO EN LA IEP N° 54002 SANTA ROSA E IES SANTA ROSA DEL DISTRITO DE ABANCAY, PROVINCIA DE ABANCAY _x0013_ REGIÓN APURÍMAC"., EN EL ENTORNO INMEDIATO (ABANCAY), CON LAS CONDICIONES ÓPTIMAS PARA REALIZAR E IMPULSAR LA EDUCACIÓN.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Agency FB"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Agency FB"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Agency FB"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Agency FB"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Agency FB"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Agency FB"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,13 +408,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -397,23 +739,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6E7AD7-FB03-4FF7-BEEB-833B86035C2B}">
-  <dimension ref="B3:C4"/>
+  <dimension ref="B3:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.5546875" style="1"/>
-    <col min="3" max="3" width="67.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="67.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>2839</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -423,6 +765,118 @@
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>3753</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>3761</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>3765</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>3768</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>3769</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="45.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>3773</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>3776</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="45.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>3779</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="45.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>3782</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>3785</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>3843</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>2951</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>3915</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>3955</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
